--- a/Networks/Parte2/Excel/Parte2-Network10.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network10.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1091321306518605</v>
+        <v>-0.8990630829450686</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.37752170216532</v>
+        <v>-0.6350191640325147</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3756582902532129</v>
+        <v>0.4523604730746857</v>
       </c>
       <c r="C3" t="n">
-        <v>1.642943882057883</v>
+        <v>0.5976472902761284</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5898723216748397</v>
+        <v>1.231055233418578</v>
       </c>
       <c r="C4" t="n">
-        <v>1.521148354363881</v>
+        <v>-1.951909710443624</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.831391645004196</v>
+        <v>-1.125485049979552</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5680846563553669</v>
+        <v>-0.2758537896692069</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.286710026091277</v>
+        <v>1.011214613423473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2263159142665487</v>
+        <v>0.07082451861169821</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.442693373546249</v>
+        <v>-1.484071284767578</v>
       </c>
       <c r="C4" t="n">
-        <v>0.826162072456566</v>
+        <v>0.9624889226984291</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network10.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network10.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8990630829450686</v>
+        <v>-0.8651844198272334</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6350191640325147</v>
+        <v>-0.8657304002748697</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4523604730746857</v>
+        <v>1.334290919236224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5976472902761284</v>
+        <v>0.1253670301364903</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.231055233418578</v>
+        <v>0.4436528822088864</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.951909710443624</v>
+        <v>-0.5174651542177248</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.125485049979552</v>
+        <v>-1.446163129861008</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2758537896692069</v>
+        <v>-0.1681707613299935</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.011214613423473</v>
+        <v>1.357860989289148</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07082451861169821</v>
+        <v>0.3851991568590112</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.484071284767578</v>
+        <v>-0.7401770957417654</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9624889226984291</v>
+        <v>-0.1272403585205737</v>
       </c>
     </row>
   </sheetData>
